--- a/DR CANO presupuesto.xlsx
+++ b/DR CANO presupuesto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\porfi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GreenLight-05\Documents\Cursos\OdonSys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E469761-B199-4A17-BA7D-146D6AFC5119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83716E3-A9F9-4891-94DB-AB02768AA7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +308,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -353,6 +359,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,7 +430,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -719,11 +728,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
@@ -1266,7 +1275,7 @@
       <c r="A57" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C57" t="str">

--- a/DR CANO presupuesto.xlsx
+++ b/DR CANO presupuesto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GreenLight-05\Documents\Cursos\OdonSys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\porfi\Documents\GitHub\OdonSys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83716E3-A9F9-4891-94DB-AB02768AA7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2101BE35-3D8D-4070-8A98-FFC4D5764AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -357,11 +357,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,7 +430,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -728,11 +728,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
@@ -740,12 +740,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1275,7 +1275,7 @@
       <c r="A57" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C57" t="str">
